--- a/testcase_module.xlsx
+++ b/testcase_module.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
@@ -1037,9 +1037,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1065,22 +1065,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1088,76 +1072,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,9 +1103,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,15 +1200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1217,7 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,7 +1229,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,19 +1313,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,55 +1373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,25 +1385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1355,49 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,17 +1426,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,30 +1466,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1506,11 +1482,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1523,6 +1512,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1531,10 +1531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1543,133 +1543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2022,7 +2022,7 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
@@ -2174,7 +2174,6 @@
       <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
@@ -2191,7 +2190,6 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:8">
@@ -4205,8 +4203,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -4225,37 +4223,19 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>328</v>
       </c>
-      <c r="B2">
-        <v>18680340380</v>
-      </c>
-      <c r="C2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>329</v>
       </c>
-      <c r="B3">
-        <v>18680340380</v>
-      </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>330</v>
-      </c>
-      <c r="B4">
-        <v>18680340380</v>
-      </c>
-      <c r="C4">
-        <v>18680340380</v>
       </c>
     </row>
   </sheetData>
